--- a/rs/src/tests/TestFiles/basic_test.xlsx
+++ b/rs/src/tests/TestFiles/basic_test.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27830"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\draviavemal\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{446699CE-8E24-4357-A073-74D0BFA48806}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E942EFB1-70A6-4A40-858D-830978E8D852}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" activeTab="1" xr2:uid="{55A69094-CFF0-4A24-937F-3F8966A07938}"/>
+    <workbookView xWindow="2295" yWindow="3345" windowWidth="34065" windowHeight="15345" activeTab="1" xr2:uid="{55A69094-CFF0-4A24-937F-3F8966A07938}"/>
   </bookViews>
   <sheets>
     <sheet name="Style" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="36">
   <si>
     <t>Different Family</t>
   </si>
@@ -119,6 +119,30 @@
   </si>
   <si>
     <t>res</t>
+  </si>
+  <si>
+    <t>Column1</t>
+  </si>
+  <si>
+    <t>Column2</t>
+  </si>
+  <si>
+    <t>Column3</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>4</t>
+  </si>
+  <si>
+    <t>Input Blue org</t>
   </si>
 </sst>
 </file>
@@ -128,7 +152,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="&quot;₹&quot;\ #,##0.00"/>
   </numFmts>
-  <fonts count="12" x14ac:knownFonts="1">
+  <fonts count="13" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -216,8 +240,15 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="6">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -245,8 +276,19 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor theme="4" tint="0.79998168889431442"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="6">
+  <borders count="16">
     <border>
       <left/>
       <right/>
@@ -305,14 +347,129 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </top>
+      <bottom style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </top>
+      <bottom style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </right>
+      <top style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </top>
+      <bottom style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </right>
+      <top style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="4">
+  <cellStyleXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="40">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -354,14 +511,180 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="6" xfId="4"/>
   </cellXfs>
-  <cellStyles count="4">
+  <cellStyles count="5">
     <cellStyle name="Bad" xfId="2" builtinId="27"/>
     <cellStyle name="Good" xfId="1" builtinId="26"/>
+    <cellStyle name="Input" xfId="4" builtinId="20"/>
     <cellStyle name="Neutral" xfId="3" builtinId="28"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="7">
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </left>
+        <right/>
+        <top style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </top>
+        <bottom style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </right>
+        <top style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </top>
+        <bottom style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </top>
+        <bottom style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </top>
+        <bottom style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <top style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <bottom style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <left style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </left>
+        <top style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </top>
+        <bottom style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </bottom>
+      </border>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -372,6 +695,31 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{5873C8BD-FFD0-4D3D-BD65-6DB24765EE8A}" name="Table1" displayName="Table1" ref="F12:H22" totalsRowShown="0">
+  <autoFilter ref="F12:H22" xr:uid="{5873C8BD-FFD0-4D3D-BD65-6DB24765EE8A}"/>
+  <tableColumns count="3">
+    <tableColumn id="1" xr3:uid="{A93D3A1E-E4E1-4CB2-9E63-815F25DE450E}" name="Column1"/>
+    <tableColumn id="2" xr3:uid="{48323DA9-7C6E-49D7-8819-12ADAFD4CBDC}" name="Column2"/>
+    <tableColumn id="3" xr3:uid="{DA8BD0E1-4760-4D09-9E56-1C0B7C4C47BB}" name="Column3"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{A229BDC0-03F6-4E22-BFCB-15D343301F0E}" name="Table2" displayName="Table2" ref="M8:P17" totalsRowShown="0" headerRowBorderDxfId="5" tableBorderDxfId="6" totalsRowBorderDxfId="4">
+  <autoFilter ref="M8:P17" xr:uid="{A229BDC0-03F6-4E22-BFCB-15D343301F0E}"/>
+  <tableColumns count="4">
+    <tableColumn id="1" xr3:uid="{76FE2717-F7CB-41BC-8D86-46E0E7B52331}" name="1" dataDxfId="3"/>
+    <tableColumn id="2" xr3:uid="{61B8E36C-70E0-465D-B2BE-5ED056E48E7E}" name="2" dataDxfId="2"/>
+    <tableColumn id="3" xr3:uid="{13487806-2E57-491C-881F-0DDEE685318D}" name="3" dataDxfId="1"/>
+    <tableColumn id="4" xr3:uid="{851495BD-E2F3-44A9-95AF-9EB1746950D5}" name="4" dataDxfId="0"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium4" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -823,19 +1171,21 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8EE0C07D-361F-4289-AA51-589831AC930B}">
-  <dimension ref="A1:D20"/>
+  <dimension ref="A1:T22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G10" sqref="G10"/>
+      <selection activeCell="V12" sqref="V12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="3" max="3" width="12" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="18.7109375" customWidth="1"/>
+    <col min="6" max="8" width="11" customWidth="1"/>
+    <col min="20" max="20" width="13.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>25</v>
       </c>
@@ -850,7 +1200,7 @@
         <v>val 1val 2res</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -866,7 +1216,7 @@
         <v>val 1val 2res</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>3</v>
       </c>
@@ -878,7 +1228,7 @@
         <v>-88</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>5</v>
       </c>
@@ -890,7 +1240,7 @@
         <v>425</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>7</v>
       </c>
@@ -902,7 +1252,7 @@
         <v>10.857142857142858</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>11</v>
       </c>
@@ -914,7 +1264,7 @@
         <v>9.5559381772732141E+74</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>12.6</v>
       </c>
@@ -926,7 +1276,7 @@
         <v>82.6</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>15</v>
       </c>
@@ -937,8 +1287,20 @@
         <f>SUM(A8:B8)</f>
         <v>83</v>
       </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="M8" s="33" t="s">
+        <v>31</v>
+      </c>
+      <c r="N8" s="33" t="s">
+        <v>32</v>
+      </c>
+      <c r="O8" s="34" t="s">
+        <v>33</v>
+      </c>
+      <c r="P8" s="35" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>17.399999999999999</v>
       </c>
@@ -949,8 +1311,20 @@
         <f>AVERAGE(A9,B9)</f>
         <v>41.7</v>
       </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="M9" s="31">
+        <v>2</v>
+      </c>
+      <c r="N9" s="31">
+        <v>4</v>
+      </c>
+      <c r="O9" s="32">
+        <v>6</v>
+      </c>
+      <c r="P9" s="30">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>19.8</v>
       </c>
@@ -961,8 +1335,20 @@
         <f>AVERAGE(A10:B10)</f>
         <v>39.9</v>
       </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="M10" s="28">
+        <v>3</v>
+      </c>
+      <c r="N10" s="28">
+        <v>6</v>
+      </c>
+      <c r="O10" s="29">
+        <v>9</v>
+      </c>
+      <c r="P10" s="27">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>22.2</v>
       </c>
@@ -973,8 +1359,20 @@
         <f>ABS(A11-B11)</f>
         <v>31.55</v>
       </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="M11" s="31">
+        <v>4</v>
+      </c>
+      <c r="N11" s="31">
+        <v>8</v>
+      </c>
+      <c r="O11" s="32">
+        <v>12</v>
+      </c>
+      <c r="P11" s="30">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>24.6</v>
       </c>
@@ -985,72 +1383,254 @@
         <f>COUNT(B12:B15)</f>
         <v>4</v>
       </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F12" t="s">
+        <v>28</v>
+      </c>
+      <c r="G12" t="s">
+        <v>29</v>
+      </c>
+      <c r="H12" t="s">
+        <v>30</v>
+      </c>
+      <c r="M12" s="28">
+        <v>5</v>
+      </c>
+      <c r="N12" s="28">
+        <v>10</v>
+      </c>
+      <c r="O12" s="29">
+        <v>15</v>
+      </c>
+      <c r="P12" s="27">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>27</v>
       </c>
       <c r="B13">
         <v>44.716666666666697</v>
       </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F13">
+        <v>1</v>
+      </c>
+      <c r="G13">
+        <v>2</v>
+      </c>
+      <c r="H13">
+        <v>3</v>
+      </c>
+      <c r="M13" s="31">
+        <v>6</v>
+      </c>
+      <c r="N13" s="31">
+        <v>12</v>
+      </c>
+      <c r="O13" s="32">
+        <v>18</v>
+      </c>
+      <c r="P13" s="30">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>29.4</v>
       </c>
       <c r="B14">
         <v>40.200000000000003</v>
       </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F14">
+        <v>2</v>
+      </c>
+      <c r="G14">
+        <v>4</v>
+      </c>
+      <c r="H14">
+        <v>6</v>
+      </c>
+      <c r="M14" s="28">
+        <v>7</v>
+      </c>
+      <c r="N14" s="28">
+        <v>14</v>
+      </c>
+      <c r="O14" s="29">
+        <v>21</v>
+      </c>
+      <c r="P14" s="27">
+        <v>28</v>
+      </c>
+      <c r="T14" s="39" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>31.8</v>
       </c>
       <c r="B15">
         <v>35.683333333333302</v>
       </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F15">
+        <v>3</v>
+      </c>
+      <c r="G15">
+        <v>6</v>
+      </c>
+      <c r="H15">
+        <v>9</v>
+      </c>
+      <c r="M15" s="31">
+        <v>8</v>
+      </c>
+      <c r="N15" s="31">
+        <v>16</v>
+      </c>
+      <c r="O15" s="32">
+        <v>24</v>
+      </c>
+      <c r="P15" s="30">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>34.200000000000003</v>
       </c>
       <c r="B16">
         <v>31.1666666666667</v>
       </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="F16">
+        <v>4</v>
+      </c>
+      <c r="G16">
+        <v>8</v>
+      </c>
+      <c r="H16">
+        <v>12</v>
+      </c>
+      <c r="M16" s="28">
+        <v>9</v>
+      </c>
+      <c r="N16" s="28">
+        <v>18</v>
+      </c>
+      <c r="O16" s="29">
+        <v>27</v>
+      </c>
+      <c r="P16" s="27">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="17" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>36.6</v>
       </c>
       <c r="B17">
         <v>26.65</v>
       </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="F17">
+        <v>5</v>
+      </c>
+      <c r="G17">
+        <v>10</v>
+      </c>
+      <c r="H17">
+        <v>15</v>
+      </c>
+      <c r="M17" s="36">
+        <v>10</v>
+      </c>
+      <c r="N17" s="36">
+        <v>20</v>
+      </c>
+      <c r="O17" s="37">
+        <v>30</v>
+      </c>
+      <c r="P17" s="38">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="18" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>39</v>
       </c>
       <c r="B18">
         <v>22.133333333333301</v>
       </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="F18">
+        <v>6</v>
+      </c>
+      <c r="G18">
+        <v>12</v>
+      </c>
+      <c r="H18">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="19" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>41.4</v>
       </c>
       <c r="B19">
         <v>17.616666666666699</v>
       </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="F19">
+        <v>7</v>
+      </c>
+      <c r="G19">
+        <v>14</v>
+      </c>
+      <c r="H19">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="20" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>43.8</v>
       </c>
       <c r="B20">
         <v>13.1</v>
       </c>
+      <c r="F20">
+        <v>8</v>
+      </c>
+      <c r="G20">
+        <v>16</v>
+      </c>
+      <c r="H20">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="21" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="F21">
+        <v>9</v>
+      </c>
+      <c r="G21">
+        <v>18</v>
+      </c>
+      <c r="H21">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="22" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="F22">
+        <v>10</v>
+      </c>
+      <c r="G22">
+        <v>20</v>
+      </c>
+      <c r="H22">
+        <v>30</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="2">
+    <tablePart r:id="rId1"/>
+    <tablePart r:id="rId2"/>
+  </tableParts>
 </worksheet>
 </file>
--- a/rs/src/tests/TestFiles/basic_test.xlsx
+++ b/rs/src/tests/TestFiles/basic_test.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28324"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\draviavemal\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E942EFB1-70A6-4A40-858D-830978E8D852}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A17606B1-6AE4-4585-A1ED-53244B14AA1A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2295" yWindow="3345" windowWidth="34065" windowHeight="15345" activeTab="1" xr2:uid="{55A69094-CFF0-4A24-937F-3F8966A07938}"/>
+    <workbookView xWindow="780" yWindow="780" windowWidth="28800" windowHeight="15345" activeTab="1" xr2:uid="{55A69094-CFF0-4A24-937F-3F8966A07938}"/>
   </bookViews>
   <sheets>
     <sheet name="Style" sheetId="1" r:id="rId1"/>
@@ -112,9 +112,6 @@
     <t>Merge Cell</t>
   </si>
   <si>
-    <t>val 1</t>
-  </si>
-  <si>
     <t>val 2</t>
   </si>
   <si>
@@ -143,6 +140,9 @@
   </si>
   <si>
     <t>Input Blue org</t>
+  </si>
+  <si>
+    <t>val 1 &amp; test</t>
   </si>
 </sst>
 </file>
@@ -508,22 +508,22 @@
     <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="3"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="2"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="12" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="6" xfId="4"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="6" xfId="4"/>
   </cellXfs>
   <cellStyles count="5">
     <cellStyle name="Bad" xfId="2" builtinId="27"/>
@@ -666,6 +666,12 @@
     </dxf>
     <dxf>
       <border outline="0">
+        <left style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </left>
+        <top style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </top>
         <bottom style="thin">
           <color theme="4" tint="0.39997558519241921"/>
         </bottom>
@@ -673,12 +679,6 @@
     </dxf>
     <dxf>
       <border outline="0">
-        <left style="thin">
-          <color theme="4" tint="0.39997558519241921"/>
-        </left>
-        <top style="thin">
-          <color theme="4" tint="0.39997558519241921"/>
-        </top>
         <bottom style="thin">
           <color theme="4" tint="0.39997558519241921"/>
         </bottom>
@@ -710,7 +710,7 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{A229BDC0-03F6-4E22-BFCB-15D343301F0E}" name="Table2" displayName="Table2" ref="M8:P17" totalsRowShown="0" headerRowBorderDxfId="5" tableBorderDxfId="6" totalsRowBorderDxfId="4">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{A229BDC0-03F6-4E22-BFCB-15D343301F0E}" name="Table2" displayName="Table2" ref="M8:P17" totalsRowShown="0" headerRowBorderDxfId="6" tableBorderDxfId="5" totalsRowBorderDxfId="4">
   <autoFilter ref="M8:P17" xr:uid="{A229BDC0-03F6-4E22-BFCB-15D343301F0E}"/>
   <tableColumns count="4">
     <tableColumn id="1" xr3:uid="{76FE2717-F7CB-41BC-8D86-46E0E7B52331}" name="1" dataDxfId="3"/>
@@ -1145,21 +1145,21 @@
       </c>
     </row>
     <row r="25" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="E25" s="26" t="s">
+      <c r="E25" s="39" t="s">
         <v>24</v>
       </c>
-      <c r="F25" s="26"/>
-      <c r="G25" s="26"/>
+      <c r="F25" s="39"/>
+      <c r="G25" s="39"/>
     </row>
     <row r="26" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="E26" s="26"/>
-      <c r="F26" s="26"/>
-      <c r="G26" s="26"/>
+      <c r="E26" s="39"/>
+      <c r="F26" s="39"/>
+      <c r="G26" s="39"/>
     </row>
     <row r="27" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="E27" s="26"/>
-      <c r="F27" s="26"/>
-      <c r="G27" s="26"/>
+      <c r="E27" s="39"/>
+      <c r="F27" s="39"/>
+      <c r="G27" s="39"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -1174,11 +1174,12 @@
   <dimension ref="A1:T22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="V12" sqref="V12"/>
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
+    <col min="1" max="1" width="10.7109375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="12" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="18.7109375" customWidth="1"/>
     <col min="6" max="8" width="11" customWidth="1"/>
@@ -1187,17 +1188,17 @@
   <sheetData>
     <row r="1" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B1" t="s">
         <v>25</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>26</v>
-      </c>
-      <c r="C1" t="s">
-        <v>27</v>
       </c>
       <c r="D1" t="str">
         <f>_xlfn.CONCAT(A1,B1,C1)</f>
-        <v>val 1val 2res</v>
+        <v>val 1 &amp; testval 2res</v>
       </c>
     </row>
     <row r="2" spans="1:20" x14ac:dyDescent="0.25">
@@ -1213,7 +1214,7 @@
       </c>
       <c r="D2" t="str">
         <f>_xlfn.CONCAT(A1:C1)</f>
-        <v>val 1val 2res</v>
+        <v>val 1 &amp; testval 2res</v>
       </c>
     </row>
     <row r="3" spans="1:20" x14ac:dyDescent="0.25">
@@ -1287,17 +1288,17 @@
         <f>SUM(A8:B8)</f>
         <v>83</v>
       </c>
-      <c r="M8" s="33" t="s">
+      <c r="M8" s="32" t="s">
+        <v>30</v>
+      </c>
+      <c r="N8" s="32" t="s">
         <v>31</v>
       </c>
-      <c r="N8" s="33" t="s">
+      <c r="O8" s="33" t="s">
         <v>32</v>
       </c>
-      <c r="O8" s="34" t="s">
+      <c r="P8" s="34" t="s">
         <v>33</v>
-      </c>
-      <c r="P8" s="35" t="s">
-        <v>34</v>
       </c>
     </row>
     <row r="9" spans="1:20" x14ac:dyDescent="0.25">
@@ -1311,16 +1312,16 @@
         <f>AVERAGE(A9,B9)</f>
         <v>41.7</v>
       </c>
-      <c r="M9" s="31">
+      <c r="M9" s="30">
         <v>2</v>
       </c>
-      <c r="N9" s="31">
+      <c r="N9" s="30">
         <v>4</v>
       </c>
-      <c r="O9" s="32">
+      <c r="O9" s="31">
         <v>6</v>
       </c>
-      <c r="P9" s="30">
+      <c r="P9" s="29">
         <v>8</v>
       </c>
     </row>
@@ -1335,16 +1336,16 @@
         <f>AVERAGE(A10:B10)</f>
         <v>39.9</v>
       </c>
-      <c r="M10" s="28">
+      <c r="M10" s="27">
         <v>3</v>
       </c>
-      <c r="N10" s="28">
+      <c r="N10" s="27">
         <v>6</v>
       </c>
-      <c r="O10" s="29">
+      <c r="O10" s="28">
         <v>9</v>
       </c>
-      <c r="P10" s="27">
+      <c r="P10" s="26">
         <v>12</v>
       </c>
     </row>
@@ -1359,16 +1360,16 @@
         <f>ABS(A11-B11)</f>
         <v>31.55</v>
       </c>
-      <c r="M11" s="31">
+      <c r="M11" s="30">
         <v>4</v>
       </c>
-      <c r="N11" s="31">
+      <c r="N11" s="30">
         <v>8</v>
       </c>
-      <c r="O11" s="32">
+      <c r="O11" s="31">
         <v>12</v>
       </c>
-      <c r="P11" s="30">
+      <c r="P11" s="29">
         <v>16</v>
       </c>
     </row>
@@ -1384,24 +1385,24 @@
         <v>4</v>
       </c>
       <c r="F12" t="s">
+        <v>27</v>
+      </c>
+      <c r="G12" t="s">
         <v>28</v>
       </c>
-      <c r="G12" t="s">
+      <c r="H12" t="s">
         <v>29</v>
       </c>
-      <c r="H12" t="s">
-        <v>30</v>
-      </c>
-      <c r="M12" s="28">
+      <c r="M12" s="27">
         <v>5</v>
       </c>
-      <c r="N12" s="28">
+      <c r="N12" s="27">
         <v>10</v>
       </c>
-      <c r="O12" s="29">
+      <c r="O12" s="28">
         <v>15</v>
       </c>
-      <c r="P12" s="27">
+      <c r="P12" s="26">
         <v>20</v>
       </c>
     </row>
@@ -1421,16 +1422,16 @@
       <c r="H13">
         <v>3</v>
       </c>
-      <c r="M13" s="31">
+      <c r="M13" s="30">
         <v>6</v>
       </c>
-      <c r="N13" s="31">
+      <c r="N13" s="30">
         <v>12</v>
       </c>
-      <c r="O13" s="32">
+      <c r="O13" s="31">
         <v>18</v>
       </c>
-      <c r="P13" s="30">
+      <c r="P13" s="29">
         <v>24</v>
       </c>
     </row>
@@ -1450,20 +1451,20 @@
       <c r="H14">
         <v>6</v>
       </c>
-      <c r="M14" s="28">
+      <c r="M14" s="27">
         <v>7</v>
       </c>
-      <c r="N14" s="28">
+      <c r="N14" s="27">
         <v>14</v>
       </c>
-      <c r="O14" s="29">
+      <c r="O14" s="28">
         <v>21</v>
       </c>
-      <c r="P14" s="27">
+      <c r="P14" s="26">
         <v>28</v>
       </c>
-      <c r="T14" s="39" t="s">
-        <v>35</v>
+      <c r="T14" s="38" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="15" spans="1:20" x14ac:dyDescent="0.25">
@@ -1482,16 +1483,16 @@
       <c r="H15">
         <v>9</v>
       </c>
-      <c r="M15" s="31">
+      <c r="M15" s="30">
         <v>8</v>
       </c>
-      <c r="N15" s="31">
+      <c r="N15" s="30">
         <v>16</v>
       </c>
-      <c r="O15" s="32">
+      <c r="O15" s="31">
         <v>24</v>
       </c>
-      <c r="P15" s="30">
+      <c r="P15" s="29">
         <v>32</v>
       </c>
     </row>
@@ -1511,16 +1512,16 @@
       <c r="H16">
         <v>12</v>
       </c>
-      <c r="M16" s="28">
+      <c r="M16" s="27">
         <v>9</v>
       </c>
-      <c r="N16" s="28">
+      <c r="N16" s="27">
         <v>18</v>
       </c>
-      <c r="O16" s="29">
+      <c r="O16" s="28">
         <v>27</v>
       </c>
-      <c r="P16" s="27">
+      <c r="P16" s="26">
         <v>36</v>
       </c>
     </row>
@@ -1540,16 +1541,16 @@
       <c r="H17">
         <v>15</v>
       </c>
-      <c r="M17" s="36">
+      <c r="M17" s="35">
         <v>10</v>
       </c>
-      <c r="N17" s="36">
+      <c r="N17" s="35">
         <v>20</v>
       </c>
-      <c r="O17" s="37">
+      <c r="O17" s="36">
         <v>30</v>
       </c>
-      <c r="P17" s="38">
+      <c r="P17" s="37">
         <v>40</v>
       </c>
     </row>
